--- a/biology/Botanique/Myrtaceae/Myrtaceae.xlsx
+++ b/biology/Botanique/Myrtaceae/Myrtaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myrtacées, Myrtaceae Juss., sont une famille de plantes dicotylédones ; elle comprend environ trois mille espèces d'arbres et d'arbustes, appartenant à de nombreux genres (de 23 à 134 selon les classifications). Ce sont souvent des producteurs d'huiles aromatiques. On les rencontre dans des zones tempérées, subtropicales à tropicales, mais ils poussent principalement en Australie et en Amérique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Myrtus  nom latin de la plante, dérivé du grec μυρτιά / myrtia, μύρτος  / mýrtos, μύρτινος  / mýrtinos[1] ; peut-être dérivé de l’akkadien asu, asum, assum, « myrthe »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Myrtus  nom latin de la plante, dérivé du grec μυρτιά / myrtia, μύρτος  / mýrtos, μύρτινος  / mýrtinos ; peut-être dérivé de l’akkadien asu, asum, assum, « myrthe ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette famille on peut citer les genres :
 Eucalyptus
@@ -551,7 +567,7 @@
 Eugenia dont le giroflier (Eugenia cariophyllata) qui donne le clou de girofle.
 Melaleuca dont on extrait des huiles essentielles.
 Leptospermum dont le manuka (Leptospermum scoparium)
-Beaucoup d'espèces appartenant à cette famille sont une source d'huiles essentielles pour la parfumerie ou pour l'usage thérapeutique. Par exemple certains Eucalyptus produisent de l'eucalyptol utilisé comme expectorant[3]. On rencontre des espèces dont les fruits sont comestibles (genres Feijoa, Eugenia, Campomanesia). Il existe aussi une espèce de figuier étrangleur en Nouvelle-Zélande (Metrosideros robusta).
+Beaucoup d'espèces appartenant à cette famille sont une source d'huiles essentielles pour la parfumerie ou pour l'usage thérapeutique. Par exemple certains Eucalyptus produisent de l'eucalyptol utilisé comme expectorant. On rencontre des espèces dont les fruits sont comestibles (genres Feijoa, Eugenia, Campomanesia). Il existe aussi une espèce de figuier étrangleur en Nouvelle-Zélande (Metrosideros robusta).
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Heteropyxidaceae (le genre Heteropyxis (en)) et Psiloxylaceae (le genre Psiloxylon).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Heteropyxidaceae (le genre Heteropyxis (en)) et Psiloxylaceae (le genre Psiloxylon).
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (1er juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (1er juin 2010) :
 Acca O.Berg (1856)
 Accara Landrum (1990)
 Actinodium Schauer ex Schltdl. (1836)
@@ -662,7 +682,7 @@
 Eucalyptopsis C.T.White (1951)
 Eucalyptus L'Hér. (1789)
 Eugenia P.Micheli ex L. (1753)
-Selon Angiosperm Phylogeny Website                        (1er juin 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (1er juin 2010) :
 Acca O.Berg
 Accara Landrum
 Acmena DC.
@@ -791,7 +811,7 @@
 Whiteodendron Steenis
 Xanthomyrtus Diels
 Xanthostemon F.Muell.
-Selon NCBI  (1er juin 2010)[7] (Plus conforme à APGIII puisqu'il incorpore les genres Psiloxylon, anciennement dans Psiloxylaceae, et Heteropyxis (en), anciennement dans Heteropyxidaceae) : 
+Selon NCBI  (1er juin 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Psiloxylon, anciennement dans Psiloxylaceae, et Heteropyxis (en), anciennement dans Heteropyxidaceae) : 
 Acca
 Actinodium
 Agonis
@@ -905,7 +925,7 @@
 Whiteodendron
 Xanthomyrtus
 Xanthostemon
-Selon DELTA Angio           (1er juin 2010)[8] :
+Selon DELTA Angio           (1er juin 2010) :
 Acca
 Accara
 Acmena
@@ -1040,7 +1060,7 @@
 Whiteodendron
 Xanthomyrtus
 Xanthostemon
-Selon ITIS      (1er juin 2010)[9] :
+Selon ITIS      (1er juin 2010) :
 Baeckea L.
 Callistemon R. Br.
 Calyptranthes Sw.
@@ -1094,8 +1114,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Espèces fruitières
-cerisier du Brésil (Eugenia brasiliensis)
+          <t>Espèces fruitières</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>cerisier du Brésil (Eugenia brasiliensis)
 cerisier de Cayenne (Eugenia uniflora)
 goyavier (Psidium guajava)
 goyavier du Brésil (Feijoa sellowiana)
@@ -1105,18 +1130,120 @@
 jamblon (Syzygium cumini)
 jambosier rouge (Syzygium malaccense)
 jamrosat (Syzygium jambos)
-rose myrtle (Rhodomyrtus tomentosa)
-Espèces à épices
-giroflier (Syzygium cariophyllata)
-quatre-épices (Pimenta dioica)
-Espèces à essences
-arbre à thé (Melaleuca alternifolia)
+rose myrtle (Rhodomyrtus tomentosa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Myrtaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces à épices</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>giroflier (Syzygium cariophyllata)
+quatre-épices (Pimenta dioica)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myrtaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces à essences</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>arbre à thé (Melaleuca alternifolia)
 giroflier (Syzygium cariophyllata)
 manuka (Leptospermum scoparium)
 myrte (Myrtus communis)
-niaouli (Melaleuca quinquenervia)
-Espèce à bois de valeur
-gommier rouge (Eucalyptus calmadulensis)</t>
+niaouli (Melaleuca quinquenervia)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Myrtaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myrtaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèce à bois de valeur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>gommier rouge (Eucalyptus calmadulensis)</t>
         </is>
       </c>
     </row>
